--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_4_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_4_37.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77166.65109214351</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77166.65109214351</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1264402985.17567</v>
+        <v>45825710.56049627</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12789.31543426564</v>
+        <v>994356.3975356352</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25191.33836392999</v>
+        <v>1920761.76769406</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37610.24817062963</v>
+        <v>2847167.137852485</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50273.47522254047</v>
+        <v>3772643.988791867</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>62936.7022744513</v>
+        <v>4698120.839731249</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>75599.92932636214</v>
+        <v>5623597.69067063</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>88263.15637827296</v>
+        <v>6549074.541610005</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>100926.3134069324</v>
+        <v>7474551.392549381</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>113589.5404588433</v>
+        <v>8400028.243488757</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>126252.7675107541</v>
+        <v>9325505.094428135</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>138915.994562665</v>
+        <v>10250981.94536751</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>151579.2216145759</v>
+        <v>11176458.79630689</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>164242.4486664867</v>
+        <v>12101935.64724628</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>176905.6757183975</v>
+        <v>13027412.49818567</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>189568.9027703085</v>
+        <v>13952889.34912506</v>
       </c>
     </row>
   </sheetData>
